--- a/Area de Proceso REQM/SOLCREQ_V0.1_2015.xlsx
+++ b/Area de Proceso REQM/SOLCREQ_V0.1_2015.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aol.UTP\12\Proyecto I\Proyecto TopBody\SistemaDeMatricula-ParaSocios-TopBody\Area de Proceso REQM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>HISTORIAL DE LAS REVISIONES</t>
   </si>
@@ -210,9 +215,6 @@
   </si>
   <si>
     <t>Se añadira un nuevo modulo :  Modulo - Vista productos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              Califa Source</t>
   </si>
   <si>
     <t xml:space="preserve">    Califa Source</t>
@@ -866,6 +868,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,6 +928,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,6 +987,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,16 +1012,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -985,44 +1097,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1031,89 +1105,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1239,15 +1241,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1274234</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1270,8 +1272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504950" y="247651"/>
-          <a:ext cx="1085850" cy="495299"/>
+          <a:off x="914400" y="180975"/>
+          <a:ext cx="1121834" cy="666749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1538,7 +1540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1559,112 +1561,112 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:9" ht="15" customHeight="1">
-      <c r="B2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="2:9" ht="36">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="30">
+      <c r="B9" s="31">
         <v>1</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="32">
         <v>0.1</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="33">
         <v>42285</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="H9" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1687,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:G15"/>
     </sheetView>
   </sheetViews>
@@ -1698,323 +1700,332 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="C3" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1">
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1">
       <c r="B6" s="2"/>
-      <c r="C6" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="C6" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="2:9" ht="25.5">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
+      <c r="D7" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="3"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="D8" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="2:9" ht="7.5" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="2:9" hidden="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="2:9" hidden="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="5"/>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="5"/>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="4"/>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1">
       <c r="B16" s="6"/>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="47" t="s">
+      <c r="D16" s="38"/>
+      <c r="E16" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="47"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="24.95" customHeight="1">
       <c r="B17" s="6"/>
-      <c r="C17" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="47" t="s">
+      <c r="C17" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="47"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="24.95" customHeight="1">
       <c r="B18" s="6"/>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="47" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="47"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7" ht="24.95" customHeight="1">
       <c r="B19" s="6"/>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="47" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7" ht="24.95" customHeight="1">
       <c r="B20" s="6"/>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="47" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7" ht="24.95" customHeight="1">
       <c r="B21" s="6"/>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="47"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="2:7" ht="24.95" customHeight="1">
       <c r="B22" s="6"/>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="2:7" ht="24.95" customHeight="1">
       <c r="B23" s="7"/>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="47" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="47"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="2:7" ht="24.95" customHeight="1">
       <c r="B24" s="7"/>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="47" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="47"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="2:7" ht="24.95" customHeight="1">
       <c r="B25" s="6"/>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="47" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="47"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:7" ht="24.95" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="47" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="47"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="2:7" ht="24.95" customHeight="1">
       <c r="B27" s="6"/>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="47" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="47"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="2:7" ht="24.95" customHeight="1">
       <c r="B28" s="8"/>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="47" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="47"/>
+      <c r="G28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="C3:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:G12"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="C27:D27"/>
@@ -2025,23 +2036,14 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C3:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:G12"/>
-    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2054,7 +2056,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2074,215 +2076,203 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="18">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:7" ht="49.5" customHeight="1">
       <c r="B8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="85"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="85"/>
     </row>
     <row r="11" spans="1:7" ht="32.25" customHeight="1">
       <c r="B11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="86">
         <v>42285</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="87"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="85"/>
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1">
       <c r="B13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="85"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
     </row>
     <row r="16" spans="1:7" ht="50.1" customHeight="1">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
     </row>
     <row r="18" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
     </row>
     <row r="20" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
     </row>
     <row r="22" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
     </row>
     <row r="24" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
     </row>
     <row r="26" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="77"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="C10:D10"/>
@@ -2294,6 +2284,18 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:D10">
